--- a/target/classes/universityInfo.xlsx
+++ b/target/classes/universityInfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100nout\IdeaProjects\ProjectUniversity\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D74C81-2420-4F3B-998E-4CDE9B0364CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>id университета</t>
   </si>
@@ -148,13 +154,46 @@
   </si>
   <si>
     <t>Васильев В. П.</t>
+  </si>
+  <si>
+    <t>Андреев В.П.</t>
+  </si>
+  <si>
+    <t>Гиреев А.К.</t>
+  </si>
+  <si>
+    <t>Петрова Л.Д.</t>
+  </si>
+  <si>
+    <t>Серова Щ.Г.</t>
+  </si>
+  <si>
+    <t>Семнадцатов Н.Г.</t>
+  </si>
+  <si>
+    <t>Девятов А.И.</t>
+  </si>
+  <si>
+    <t>Третий Т.Л.</t>
+  </si>
+  <si>
+    <t>Четвертый Д.В.</t>
+  </si>
+  <si>
+    <t>Медик  У.П.</t>
+  </si>
+  <si>
+    <t>Алехин Н.Д.</t>
+  </si>
+  <si>
+    <t>Ковер О.Ж.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +243,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +329,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +381,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -491,16 +574,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C2:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -528,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -542,7 +628,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -556,7 +642,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -570,7 +656,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -584,7 +670,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -598,7 +684,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -612,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -626,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -640,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -654,7 +740,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -665,6 +751,160 @@
         <v>4</v>
       </c>
       <c r="D12" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
         <v>4.7</v>
       </c>
     </row>
@@ -675,14 +915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
@@ -691,7 +931,7 @@
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +949,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -743,7 +983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -760,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -777,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -794,7 +1034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -811,7 +1051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -835,12 +1075,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/universityInfo.xlsx
+++ b/target/classes/universityInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100nout\IdeaProjects\ProjectUniversity\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D74C81-2420-4F3B-998E-4CDE9B0364CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0A7163-67A0-42A4-A31A-D9876DA3535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
